--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,9 +573,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,9 +597,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -611,15 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -630,6 +615,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -835,6 +835,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -875,7 +878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2" descr="https://www.freelogoservices.com/api/main/images/1j+ojl1FOMkX9WypfBe43D6kjPGArx5InxrEwXs1M3EMoAJtlCkpgfRo8vQ4"/>
+        <xdr:cNvPr id="3" name="Grafik 2" descr="https://www.freelogoservices.com/api/main/images/1j+ojl1FOMkX9WypfBe43D6kjPGArx5InxrEwXs1M3EMoAJtlCkpgfRo8vQ4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1143,7 +1152,7 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1161,22 +1170,22 @@
   <sheetData>
     <row r="1" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1220,12 +1229,12 @@
       </c>
     </row>
     <row r="5" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1294,74 +1303,74 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="33" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="33" t="s">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37"/>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
     </row>
     <row r="10" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1554,10 +1563,10 @@
       <c r="BQ10" s="1"/>
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="15">
@@ -1577,14 +1586,14 @@
       </c>
     </row>
     <row r="12" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>2</v>
       </c>
       <c r="E12" s="15">
@@ -1598,8 +1607,8 @@
       </c>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="15">
@@ -1619,8 +1628,8 @@
       </c>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="15">
@@ -1640,8 +1649,8 @@
       </c>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="15">
@@ -1659,11 +1668,11 @@
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="AF15" s="36"/>
+      <c r="AF15" s="31"/>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="15">
@@ -1683,8 +1692,8 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="15">
@@ -1703,66 +1712,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="39" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
+    <row r="18" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
     </row>
     <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
       </c>
       <c r="D19" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="15">
         <v>6</v>
@@ -1778,12 +1787,12 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="15">
         <v>5</v>
@@ -1799,12 +1808,12 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="15">
         <v>4</v>
@@ -1819,41 +1828,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="39" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
+    <row r="23" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
     </row>
     <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="15">
@@ -1873,8 +1882,8 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="15">
@@ -1894,8 +1903,8 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="15">
@@ -1915,8 +1924,8 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="15">
@@ -1936,8 +1945,8 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="15">
@@ -1956,38 +1965,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="39" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
+    <row r="29" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
     </row>
     <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
@@ -2008,7 +2017,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -2029,7 +2038,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="14" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2059,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="14" t="s">
         <v>14</v>
       </c>
@@ -2071,7 +2080,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2101,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="14" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2122,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="14" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +2143,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2164,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="14" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2185,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
@@ -2198,14 +2207,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="I9:P9"/>
     <mergeCell ref="Z9:AE9"/>
     <mergeCell ref="AF9:AK9"/>
     <mergeCell ref="Q9:Y9"/>
     <mergeCell ref="B3:G5"/>
     <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="I11:BP39">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9510" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Projektplanung</t>
   </si>
@@ -62,36 +62,6 @@
   </si>
   <si>
     <t>AKTIVITÄT</t>
-  </si>
-  <si>
-    <t>Aktivität 17</t>
-  </si>
-  <si>
-    <t>Aktivität 18</t>
-  </si>
-  <si>
-    <t>Aktivität 19</t>
-  </si>
-  <si>
-    <t>Aktivität 20</t>
-  </si>
-  <si>
-    <t>Aktivität 21</t>
-  </si>
-  <si>
-    <t>Aktivität 22</t>
-  </si>
-  <si>
-    <t>Aktivität 23</t>
-  </si>
-  <si>
-    <t>Aktivität 24</t>
-  </si>
-  <si>
-    <t>Aktivität 25</t>
-  </si>
-  <si>
-    <t>Aktivität 26</t>
   </si>
   <si>
     <r>
@@ -227,6 +197,54 @@
   </si>
   <si>
     <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Programmierumgebung erstellen</t>
+  </si>
+  <si>
+    <t>Layout für Website erstellen</t>
+  </si>
+  <si>
+    <t>Konzept erstellen</t>
+  </si>
+  <si>
+    <t>Datenbankkonzept erstellen</t>
+  </si>
+  <si>
+    <t>Pflichtenheft erstellen</t>
+  </si>
+  <si>
+    <t>Datenbankkonzept überarbeiten</t>
+  </si>
+  <si>
+    <t>Benutzerverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Hardwareverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Softwareverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Raumverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Lieferantenverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Herstellerverwaltung erstellen</t>
+  </si>
+  <si>
+    <t>Frontend erstellen/bearbeiten</t>
+  </si>
+  <si>
+    <t>Komponenten verknüpfen</t>
+  </si>
+  <si>
+    <t>Testen und Fehlerbehebung</t>
   </si>
 </sst>
 </file>
@@ -398,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -487,6 +505,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -512,7 +550,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,8 +669,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -642,7 +707,572 @@
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -808,7 +1438,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="Ausgewählter_Zeitraum" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="Ausgewählter_Zeitraum" max="60" min="1" page="10" val="7"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,10 +1779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ39"/>
+  <dimension ref="A1:BQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1170,24 +1800,24 @@
   <sheetData>
     <row r="1" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1197,7 +1827,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R4" s="8"/>
       <c r="T4" s="9"/>
@@ -1210,14 +1840,14 @@
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -1225,16 +1855,16 @@
       <c r="AM4" s="1"/>
       <c r="AP4" s="13"/>
       <c r="AQ4" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1303,54 +1933,58 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="I9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="P9" s="37"/>
-      <c r="Q9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
-      <c r="Z9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
-      <c r="AF9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
+      <c r="AF9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="37"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
+      <c r="AL9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="38"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
@@ -1398,106 +2032,106 @@
       <c r="N10" s="3">
         <v>6</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="41">
         <v>7</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="42">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="42">
         <v>9</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="42">
         <v>10</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="42">
         <v>11</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="42">
         <v>12</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="42">
         <v>13</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="42">
         <v>14</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="41">
         <v>15</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="42">
         <v>16</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="42">
         <v>17</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="42">
         <v>18</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="42">
         <v>19</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="42">
         <v>20</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="42">
         <v>21</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="42">
         <v>22</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="42">
         <v>23</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="41">
         <v>24</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="42">
         <v>25</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AH10" s="42">
         <v>26</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="42">
         <v>27</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="42">
         <v>28</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK10" s="42">
         <v>29</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10" s="41">
         <v>30</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="42">
         <v>31</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="42">
         <v>32</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="42">
         <v>33</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="42">
         <v>34</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="42">
         <v>35</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AR10" s="41">
         <v>36</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AS10" s="42">
         <v>37</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AT10" s="42">
         <v>38</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="AU10" s="42">
         <v>39</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="AV10" s="42">
         <v>40</v>
       </c>
       <c r="AW10" s="3">
@@ -1563,14 +2197,14 @@
       <c r="BQ10" s="1"/>
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>42</v>
+      <c r="A11" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -1584,14 +2218,48 @@
       <c r="G11" s="16">
         <v>0</v>
       </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="26">
         <v>2</v>
@@ -1605,14 +2273,48 @@
       <c r="G12" s="16">
         <v>0</v>
       </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -1626,14 +2328,48 @@
       <c r="G13" s="16">
         <v>0</v>
       </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -1647,14 +2383,48 @@
       <c r="G14" s="16">
         <v>0</v>
       </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -1668,15 +2438,48 @@
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="AF15" s="31"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>
@@ -1690,14 +2493,48 @@
       <c r="G16" s="16">
         <v>0</v>
       </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
       <c r="B17" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" s="15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -1711,8 +2548,42 @@
       <c r="G17" s="16">
         <v>0</v>
       </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
     </row>
-    <row r="18" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -1727,36 +2598,56 @@
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>43</v>
+    <row r="19" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
       <c r="E19" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -1764,14 +2655,48 @@
       <c r="G19" s="16">
         <v>0</v>
       </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
       <c r="B20" s="20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20" s="15">
         <v>6</v>
@@ -1785,14 +2710,48 @@
       <c r="G20" s="16">
         <v>0</v>
       </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
       <c r="B21" s="20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C21" s="15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" s="15">
         <v>5</v>
@@ -1806,14 +2765,48 @@
       <c r="G21" s="16">
         <v>0</v>
       </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+    <row r="22" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
       <c r="B22" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C22" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22" s="15">
         <v>4</v>
@@ -1827,8 +2820,42 @@
       <c r="G22" s="16">
         <v>0</v>
       </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
     </row>
-    <row r="23" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25"/>
@@ -1843,30 +2870,50 @@
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>41</v>
+    <row r="24" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C24" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="15">
         <v>3</v>
@@ -1880,14 +2927,48 @@
       <c r="G24" s="16">
         <v>0</v>
       </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+    <row r="25" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C25" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" s="15">
         <v>2</v>
@@ -1901,14 +2982,48 @@
       <c r="G25" s="16">
         <v>0</v>
       </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
       <c r="B26" s="20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26" s="15">
         <v>2</v>
@@ -1922,14 +3037,48 @@
       <c r="G26" s="16">
         <v>0</v>
       </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
       <c r="B27" s="20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" s="15">
         <v>4</v>
@@ -1943,14 +3092,48 @@
       <c r="G27" s="16">
         <v>0</v>
       </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
       <c r="B28" s="20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15">
         <v>2</v>
@@ -1964,8 +3147,42 @@
       <c r="G28" s="16">
         <v>0</v>
       </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
     </row>
-    <row r="29" spans="1:28" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -1980,115 +3197,271 @@
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="46"/>
+      <c r="AV29" s="46"/>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
       </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="14" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C31" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
       </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
     </row>
-    <row r="32" spans="1:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C32" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16">
         <v>0</v>
       </c>
+      <c r="O32" s="43"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
     </row>
-    <row r="33" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C33" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="16">
         <v>0</v>
       </c>
+      <c r="O33" s="43"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
     </row>
-    <row r="34" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C34" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D34" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
@@ -2099,17 +3472,51 @@
       <c r="G34" s="16">
         <v>0</v>
       </c>
+      <c r="O34" s="43"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
     </row>
-    <row r="35" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="14" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C35" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -2120,17 +3527,51 @@
       <c r="G35" s="16">
         <v>0</v>
       </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="47"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
     </row>
-    <row r="36" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="14" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C36" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D36" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -2141,17 +3582,51 @@
       <c r="G36" s="16">
         <v>0</v>
       </c>
+      <c r="O36" s="43"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
     </row>
-    <row r="37" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
       <c r="B37" s="14" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C37" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D37" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2162,17 +3637,51 @@
       <c r="G37" s="16">
         <v>0</v>
       </c>
+      <c r="O37" s="43"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
     </row>
-    <row r="38" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C38" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D38" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2183,17 +3692,51 @@
       <c r="G38" s="16">
         <v>0</v>
       </c>
+      <c r="O38" s="43"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
     </row>
-    <row r="39" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="14" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C39" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2204,52 +3747,384 @@
       <c r="G39" s="16">
         <v>0</v>
       </c>
+      <c r="O39" s="43"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+    </row>
+    <row r="40" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="15">
+        <v>22</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="43"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+    </row>
+    <row r="41" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="15">
+        <v>23</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="43"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="47"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+    </row>
+    <row r="42" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="15">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15">
+        <v>3</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="43"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="47"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="31"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+    </row>
+    <row r="43" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="15">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="O43" s="43"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="31"/>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+      <c r="AO43" s="31"/>
+      <c r="AP43" s="31"/>
+      <c r="AQ43" s="31"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="31"/>
+      <c r="AT43" s="31"/>
+      <c r="AU43" s="31"/>
+      <c r="AV43" s="31"/>
+    </row>
+    <row r="44" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="15">
+        <v>30</v>
+      </c>
+      <c r="D44" s="15">
+        <v>10</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="O44" s="43"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="W9:AE9"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Z9:AE9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="Q9:Y9"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="A11:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:BP39">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I11:BP38">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="45" priority="14">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="44" priority="15">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:BP40">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
+  <conditionalFormatting sqref="I10:BP10">
+    <cfRule type="expression" dxfId="40" priority="16">
+      <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BP10">
+  <conditionalFormatting sqref="I39:BP44">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ProzentAbgeschlossen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>ProzentAbgeschlossenUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Ist</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IstUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Planen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>I$10=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>I$10=Ausgewählter_Zeitraum</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9510" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Projektplanung</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>Testen und Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,47 +663,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -707,120 +731,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -1289,15 +1200,6 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1779,16 +1681,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ44"/>
+  <dimension ref="A1:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
@@ -1800,22 +1702,22 @@
   <sheetData>
     <row r="1" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1859,12 +1761,12 @@
       </c>
     </row>
     <row r="5" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1933,58 +1835,58 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="36" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="36" t="s">
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="36" t="s">
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="36" t="s">
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="36" t="s">
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="38"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="46"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
@@ -2032,106 +1934,106 @@
       <c r="N10" s="3">
         <v>6</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="36">
         <v>7</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="37">
         <v>8</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="37">
         <v>9</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="37">
         <v>10</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="37">
         <v>11</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="37">
         <v>12</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="37">
         <v>13</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="37">
         <v>14</v>
       </c>
-      <c r="W10" s="41">
+      <c r="W10" s="36">
         <v>15</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="37">
         <v>16</v>
       </c>
-      <c r="Y10" s="42">
+      <c r="Y10" s="37">
         <v>17</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="37">
         <v>18</v>
       </c>
-      <c r="AA10" s="42">
+      <c r="AA10" s="37">
         <v>19</v>
       </c>
-      <c r="AB10" s="42">
+      <c r="AB10" s="37">
         <v>20</v>
       </c>
-      <c r="AC10" s="42">
+      <c r="AC10" s="37">
         <v>21</v>
       </c>
-      <c r="AD10" s="42">
+      <c r="AD10" s="37">
         <v>22</v>
       </c>
-      <c r="AE10" s="42">
+      <c r="AE10" s="37">
         <v>23</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AF10" s="36">
         <v>24</v>
       </c>
-      <c r="AG10" s="42">
+      <c r="AG10" s="37">
         <v>25</v>
       </c>
-      <c r="AH10" s="42">
+      <c r="AH10" s="37">
         <v>26</v>
       </c>
-      <c r="AI10" s="42">
+      <c r="AI10" s="37">
         <v>27</v>
       </c>
-      <c r="AJ10" s="42">
+      <c r="AJ10" s="37">
         <v>28</v>
       </c>
-      <c r="AK10" s="42">
+      <c r="AK10" s="37">
         <v>29</v>
       </c>
-      <c r="AL10" s="41">
+      <c r="AL10" s="36">
         <v>30</v>
       </c>
-      <c r="AM10" s="42">
+      <c r="AM10" s="37">
         <v>31</v>
       </c>
-      <c r="AN10" s="42">
+      <c r="AN10" s="37">
         <v>32</v>
       </c>
-      <c r="AO10" s="42">
+      <c r="AO10" s="37">
         <v>33</v>
       </c>
-      <c r="AP10" s="42">
+      <c r="AP10" s="37">
         <v>34</v>
       </c>
-      <c r="AQ10" s="42">
+      <c r="AQ10" s="37">
         <v>35</v>
       </c>
-      <c r="AR10" s="41">
+      <c r="AR10" s="36">
         <v>36</v>
       </c>
-      <c r="AS10" s="42">
+      <c r="AS10" s="37">
         <v>37</v>
       </c>
-      <c r="AT10" s="42">
+      <c r="AT10" s="37">
         <v>38</v>
       </c>
-      <c r="AU10" s="42">
+      <c r="AU10" s="37">
         <v>39</v>
       </c>
-      <c r="AV10" s="42">
+      <c r="AV10" s="37">
         <v>40</v>
       </c>
       <c r="AW10" s="3">
@@ -2197,7 +2099,7 @@
       <c r="BQ10" s="1"/>
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2210,51 +2112,51 @@
         <v>1</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="31"/>
-      <c r="AF11" s="47"/>
+      <c r="AF11" s="42"/>
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
-      <c r="AL11" s="47"/>
+      <c r="AL11" s="42"/>
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
       <c r="AO11" s="31"/>
       <c r="AP11" s="31"/>
       <c r="AQ11" s="31"/>
-      <c r="AR11" s="47"/>
+      <c r="AR11" s="42"/>
       <c r="AS11" s="31"/>
       <c r="AT11" s="31"/>
       <c r="AU11" s="31"/>
       <c r="AV11" s="31"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
@@ -2273,43 +2175,43 @@
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
       <c r="AC12" s="31"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
-      <c r="AF12" s="47"/>
+      <c r="AF12" s="42"/>
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
-      <c r="AL12" s="47"/>
+      <c r="AL12" s="42"/>
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="31"/>
       <c r="AP12" s="31"/>
       <c r="AQ12" s="31"/>
-      <c r="AR12" s="47"/>
+      <c r="AR12" s="42"/>
       <c r="AS12" s="31"/>
       <c r="AT12" s="31"/>
       <c r="AU12" s="31"/>
       <c r="AV12" s="31"/>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
@@ -2326,45 +2228,45 @@
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
       <c r="AC13" s="31"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
-      <c r="AF13" s="47"/>
+      <c r="AF13" s="42"/>
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
-      <c r="AL13" s="47"/>
+      <c r="AL13" s="42"/>
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="31"/>
       <c r="AP13" s="31"/>
       <c r="AQ13" s="31"/>
-      <c r="AR13" s="47"/>
+      <c r="AR13" s="42"/>
       <c r="AS13" s="31"/>
       <c r="AT13" s="31"/>
       <c r="AU13" s="31"/>
       <c r="AV13" s="31"/>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
@@ -2381,45 +2283,45 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="38"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
       <c r="AC14" s="31"/>
       <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
-      <c r="AF14" s="47"/>
+      <c r="AF14" s="42"/>
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
-      <c r="AL14" s="47"/>
+      <c r="AL14" s="42"/>
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
       <c r="AO14" s="31"/>
       <c r="AP14" s="31"/>
       <c r="AQ14" s="31"/>
-      <c r="AR14" s="47"/>
+      <c r="AR14" s="42"/>
       <c r="AS14" s="31"/>
       <c r="AT14" s="31"/>
       <c r="AU14" s="31"/>
       <c r="AV14" s="31"/>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
@@ -2438,43 +2340,43 @@
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
       <c r="AC15" s="31"/>
       <c r="AD15" s="31"/>
       <c r="AE15" s="31"/>
-      <c r="AF15" s="47"/>
+      <c r="AF15" s="42"/>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
-      <c r="AL15" s="47"/>
+      <c r="AL15" s="42"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="31"/>
       <c r="AO15" s="31"/>
       <c r="AP15" s="31"/>
       <c r="AQ15" s="31"/>
-      <c r="AR15" s="47"/>
+      <c r="AR15" s="42"/>
       <c r="AS15" s="31"/>
       <c r="AT15" s="31"/>
       <c r="AU15" s="31"/>
       <c r="AV15" s="31"/>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
@@ -2493,43 +2395,43 @@
       <c r="G16" s="16">
         <v>0</v>
       </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
       <c r="AC16" s="31"/>
       <c r="AD16" s="31"/>
       <c r="AE16" s="31"/>
-      <c r="AF16" s="47"/>
+      <c r="AF16" s="42"/>
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
-      <c r="AL16" s="47"/>
+      <c r="AL16" s="42"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
       <c r="AO16" s="31"/>
       <c r="AP16" s="31"/>
       <c r="AQ16" s="31"/>
-      <c r="AR16" s="47"/>
+      <c r="AR16" s="42"/>
       <c r="AS16" s="31"/>
       <c r="AT16" s="31"/>
       <c r="AU16" s="31"/>
       <c r="AV16" s="31"/>
     </row>
     <row r="17" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
@@ -2548,36 +2450,36 @@
       <c r="G17" s="16">
         <v>0</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
       <c r="AC17" s="31"/>
       <c r="AD17" s="31"/>
       <c r="AE17" s="31"/>
-      <c r="AF17" s="47"/>
+      <c r="AF17" s="42"/>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
-      <c r="AL17" s="47"/>
+      <c r="AL17" s="42"/>
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
       <c r="AO17" s="31"/>
       <c r="AP17" s="31"/>
       <c r="AQ17" s="31"/>
-      <c r="AR17" s="47"/>
+      <c r="AR17" s="42"/>
       <c r="AS17" s="31"/>
       <c r="AT17" s="31"/>
       <c r="AU17" s="31"/>
@@ -2598,43 +2500,43 @@
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
     </row>
     <row r="19" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2653,45 +2555,45 @@
         <v>1</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
       <c r="AC19" s="31"/>
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
-      <c r="AF19" s="47"/>
+      <c r="AF19" s="42"/>
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
-      <c r="AL19" s="47"/>
+      <c r="AL19" s="42"/>
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
       <c r="AO19" s="31"/>
       <c r="AP19" s="31"/>
       <c r="AQ19" s="31"/>
-      <c r="AR19" s="47"/>
+      <c r="AR19" s="42"/>
       <c r="AS19" s="31"/>
       <c r="AT19" s="31"/>
       <c r="AU19" s="31"/>
       <c r="AV19" s="31"/>
     </row>
     <row r="20" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
@@ -2710,43 +2612,43 @@
       <c r="G20" s="16">
         <v>0</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
-      <c r="AF20" s="47"/>
+      <c r="AF20" s="42"/>
       <c r="AG20" s="31"/>
       <c r="AH20" s="31"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
-      <c r="AL20" s="47"/>
+      <c r="AL20" s="42"/>
       <c r="AM20" s="31"/>
       <c r="AN20" s="31"/>
       <c r="AO20" s="31"/>
       <c r="AP20" s="31"/>
       <c r="AQ20" s="31"/>
-      <c r="AR20" s="47"/>
+      <c r="AR20" s="42"/>
       <c r="AS20" s="31"/>
       <c r="AT20" s="31"/>
       <c r="AU20" s="31"/>
       <c r="AV20" s="31"/>
     </row>
     <row r="21" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
@@ -2765,43 +2667,43 @@
       <c r="G21" s="16">
         <v>0</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
       <c r="AC21" s="31"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
-      <c r="AF21" s="47"/>
+      <c r="AF21" s="42"/>
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
-      <c r="AL21" s="47"/>
+      <c r="AL21" s="42"/>
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
       <c r="AO21" s="31"/>
       <c r="AP21" s="31"/>
       <c r="AQ21" s="31"/>
-      <c r="AR21" s="47"/>
+      <c r="AR21" s="42"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
       <c r="AV21" s="31"/>
     </row>
     <row r="22" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
       </c>
@@ -2820,36 +2722,36 @@
       <c r="G22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
       <c r="AC22" s="31"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
-      <c r="AF22" s="47"/>
+      <c r="AF22" s="42"/>
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
-      <c r="AL22" s="47"/>
+      <c r="AL22" s="42"/>
       <c r="AM22" s="31"/>
       <c r="AN22" s="31"/>
       <c r="AO22" s="31"/>
       <c r="AP22" s="31"/>
       <c r="AQ22" s="31"/>
-      <c r="AR22" s="47"/>
+      <c r="AR22" s="42"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -2870,43 +2772,43 @@
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
     </row>
     <row r="24" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2925,45 +2827,45 @@
         <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
+        <v>0.8</v>
+      </c>
+      <c r="O24" s="38"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
       <c r="AC24" s="31"/>
       <c r="AD24" s="31"/>
       <c r="AE24" s="31"/>
-      <c r="AF24" s="47"/>
+      <c r="AF24" s="42"/>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
       <c r="AI24" s="31"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
-      <c r="AL24" s="47"/>
+      <c r="AL24" s="42"/>
       <c r="AM24" s="31"/>
       <c r="AN24" s="31"/>
       <c r="AO24" s="31"/>
       <c r="AP24" s="31"/>
       <c r="AQ24" s="31"/>
-      <c r="AR24" s="47"/>
+      <c r="AR24" s="42"/>
       <c r="AS24" s="31"/>
       <c r="AT24" s="31"/>
       <c r="AU24" s="31"/>
       <c r="AV24" s="31"/>
     </row>
     <row r="25" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="20" t="s">
         <v>28</v>
       </c>
@@ -2980,45 +2882,45 @@
         <v>0</v>
       </c>
       <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
+        <v>0.8</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
       <c r="AC25" s="31"/>
       <c r="AD25" s="31"/>
       <c r="AE25" s="31"/>
-      <c r="AF25" s="47"/>
+      <c r="AF25" s="42"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
       <c r="AI25" s="31"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
-      <c r="AL25" s="47"/>
+      <c r="AL25" s="42"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="31"/>
       <c r="AO25" s="31"/>
       <c r="AP25" s="31"/>
       <c r="AQ25" s="31"/>
-      <c r="AR25" s="47"/>
+      <c r="AR25" s="42"/>
       <c r="AS25" s="31"/>
       <c r="AT25" s="31"/>
       <c r="AU25" s="31"/>
       <c r="AV25" s="31"/>
     </row>
     <row r="26" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
@@ -3035,45 +2937,45 @@
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
+        <v>0.8</v>
+      </c>
+      <c r="O26" s="38"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
       <c r="AC26" s="31"/>
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
-      <c r="AF26" s="47"/>
+      <c r="AF26" s="42"/>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
       <c r="AI26" s="31"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
-      <c r="AL26" s="47"/>
+      <c r="AL26" s="42"/>
       <c r="AM26" s="31"/>
       <c r="AN26" s="31"/>
       <c r="AO26" s="31"/>
       <c r="AP26" s="31"/>
       <c r="AQ26" s="31"/>
-      <c r="AR26" s="47"/>
+      <c r="AR26" s="42"/>
       <c r="AS26" s="31"/>
       <c r="AT26" s="31"/>
       <c r="AU26" s="31"/>
       <c r="AV26" s="31"/>
     </row>
-    <row r="27" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
       <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
@@ -3092,43 +2994,43 @@
       <c r="G27" s="16">
         <v>0</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
       <c r="AC27" s="31"/>
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
-      <c r="AF27" s="47"/>
+      <c r="AF27" s="42"/>
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
       <c r="AI27" s="31"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
-      <c r="AL27" s="47"/>
+      <c r="AL27" s="42"/>
       <c r="AM27" s="31"/>
       <c r="AN27" s="31"/>
       <c r="AO27" s="31"/>
       <c r="AP27" s="31"/>
       <c r="AQ27" s="31"/>
-      <c r="AR27" s="47"/>
+      <c r="AR27" s="42"/>
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="31"/>
       <c r="AV27" s="31"/>
     </row>
     <row r="28" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="20" t="s">
         <v>30</v>
       </c>
@@ -3147,36 +3049,36 @@
       <c r="G28" s="16">
         <v>0</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
       <c r="AC28" s="31"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
-      <c r="AF28" s="47"/>
+      <c r="AF28" s="42"/>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
       <c r="AI28" s="31"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
-      <c r="AL28" s="47"/>
+      <c r="AL28" s="42"/>
       <c r="AM28" s="31"/>
       <c r="AN28" s="31"/>
       <c r="AO28" s="31"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="47"/>
+      <c r="AR28" s="42"/>
       <c r="AS28" s="31"/>
       <c r="AT28" s="31"/>
       <c r="AU28" s="31"/>
@@ -3197,62 +3099,69 @@
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-    </row>
-    <row r="30" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15">
-        <v>2</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="O30" s="43"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="41"/>
+      <c r="AV29" s="41"/>
+    </row>
+    <row r="30" spans="1:48" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="51">
+        <v>7</v>
+      </c>
+      <c r="D30" s="51">
+        <v>15</v>
+      </c>
+      <c r="E30" s="51">
+        <v>7</v>
+      </c>
+      <c r="F30" s="51">
+        <v>0</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="39"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -3260,54 +3169,49 @@
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
-      <c r="W30" s="43"/>
+      <c r="W30" s="39"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
       <c r="AA30" s="40"/>
       <c r="AB30" s="40"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-    </row>
-    <row r="31" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="15">
-        <v>3</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>3</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="O31" s="43"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="41"/>
+      <c r="AV30" s="41"/>
+    </row>
+    <row r="31" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -3315,83 +3219,83 @@
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
-      <c r="W31" s="43"/>
+      <c r="W31" s="39"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
       <c r="Z31" s="40"/>
       <c r="AA31" s="40"/>
       <c r="AB31" s="40"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
     </row>
     <row r="32" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
         <v>1</v>
       </c>
-      <c r="E32" s="15">
-        <v>4</v>
-      </c>
       <c r="F32" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="16">
         <v>0</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
       <c r="AC32" s="31"/>
       <c r="AD32" s="31"/>
       <c r="AE32" s="31"/>
-      <c r="AF32" s="47"/>
+      <c r="AF32" s="42"/>
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
       <c r="AI32" s="31"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
-      <c r="AL32" s="47"/>
+      <c r="AL32" s="42"/>
       <c r="AM32" s="31"/>
       <c r="AN32" s="31"/>
       <c r="AO32" s="31"/>
       <c r="AP32" s="31"/>
       <c r="AQ32" s="31"/>
-      <c r="AR32" s="47"/>
+      <c r="AR32" s="42"/>
       <c r="AS32" s="31"/>
       <c r="AT32" s="31"/>
       <c r="AU32" s="31"/>
@@ -3400,53 +3304,53 @@
     <row r="33" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="16">
         <v>0</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
       <c r="AC33" s="31"/>
       <c r="AD33" s="31"/>
       <c r="AE33" s="31"/>
-      <c r="AF33" s="47"/>
+      <c r="AF33" s="42"/>
       <c r="AG33" s="31"/>
       <c r="AH33" s="31"/>
       <c r="AI33" s="31"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
-      <c r="AL33" s="47"/>
+      <c r="AL33" s="42"/>
       <c r="AM33" s="31"/>
       <c r="AN33" s="31"/>
       <c r="AO33" s="31"/>
       <c r="AP33" s="31"/>
       <c r="AQ33" s="31"/>
-      <c r="AR33" s="47"/>
+      <c r="AR33" s="42"/>
       <c r="AS33" s="31"/>
       <c r="AT33" s="31"/>
       <c r="AU33" s="31"/>
@@ -3455,53 +3359,53 @@
     <row r="34" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
         <v>4</v>
       </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
       <c r="F34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
       </c>
-      <c r="O34" s="43"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
       <c r="AC34" s="31"/>
       <c r="AD34" s="31"/>
       <c r="AE34" s="31"/>
-      <c r="AF34" s="47"/>
+      <c r="AF34" s="42"/>
       <c r="AG34" s="31"/>
       <c r="AH34" s="31"/>
       <c r="AI34" s="31"/>
       <c r="AJ34" s="31"/>
       <c r="AK34" s="31"/>
-      <c r="AL34" s="47"/>
+      <c r="AL34" s="42"/>
       <c r="AM34" s="31"/>
       <c r="AN34" s="31"/>
       <c r="AO34" s="31"/>
       <c r="AP34" s="31"/>
       <c r="AQ34" s="31"/>
-      <c r="AR34" s="47"/>
+      <c r="AR34" s="42"/>
       <c r="AS34" s="31"/>
       <c r="AT34" s="31"/>
       <c r="AU34" s="31"/>
@@ -3510,53 +3414,53 @@
     <row r="35" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
       </c>
-      <c r="O35" s="43"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
       <c r="AC35" s="31"/>
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
-      <c r="AF35" s="47"/>
+      <c r="AF35" s="42"/>
       <c r="AG35" s="31"/>
       <c r="AH35" s="31"/>
       <c r="AI35" s="31"/>
       <c r="AJ35" s="31"/>
       <c r="AK35" s="31"/>
-      <c r="AL35" s="47"/>
+      <c r="AL35" s="42"/>
       <c r="AM35" s="31"/>
       <c r="AN35" s="31"/>
       <c r="AO35" s="31"/>
       <c r="AP35" s="31"/>
       <c r="AQ35" s="31"/>
-      <c r="AR35" s="47"/>
+      <c r="AR35" s="42"/>
       <c r="AS35" s="31"/>
       <c r="AT35" s="31"/>
       <c r="AU35" s="31"/>
@@ -3565,13 +3469,13 @@
     <row r="36" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -3582,36 +3486,36 @@
       <c r="G36" s="16">
         <v>0</v>
       </c>
-      <c r="O36" s="43"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
       <c r="AC36" s="31"/>
       <c r="AD36" s="31"/>
       <c r="AE36" s="31"/>
-      <c r="AF36" s="47"/>
+      <c r="AF36" s="42"/>
       <c r="AG36" s="31"/>
       <c r="AH36" s="31"/>
       <c r="AI36" s="31"/>
       <c r="AJ36" s="31"/>
       <c r="AK36" s="31"/>
-      <c r="AL36" s="47"/>
+      <c r="AL36" s="42"/>
       <c r="AM36" s="31"/>
       <c r="AN36" s="31"/>
       <c r="AO36" s="31"/>
       <c r="AP36" s="31"/>
       <c r="AQ36" s="31"/>
-      <c r="AR36" s="47"/>
+      <c r="AR36" s="42"/>
       <c r="AS36" s="31"/>
       <c r="AT36" s="31"/>
       <c r="AU36" s="31"/>
@@ -3620,13 +3524,13 @@
     <row r="37" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
       <c r="B37" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D37" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -3637,36 +3541,36 @@
       <c r="G37" s="16">
         <v>0</v>
       </c>
-      <c r="O37" s="43"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
       <c r="AC37" s="31"/>
       <c r="AD37" s="31"/>
       <c r="AE37" s="31"/>
-      <c r="AF37" s="47"/>
+      <c r="AF37" s="42"/>
       <c r="AG37" s="31"/>
       <c r="AH37" s="31"/>
       <c r="AI37" s="31"/>
       <c r="AJ37" s="31"/>
       <c r="AK37" s="31"/>
-      <c r="AL37" s="47"/>
+      <c r="AL37" s="42"/>
       <c r="AM37" s="31"/>
       <c r="AN37" s="31"/>
       <c r="AO37" s="31"/>
       <c r="AP37" s="31"/>
       <c r="AQ37" s="31"/>
-      <c r="AR37" s="47"/>
+      <c r="AR37" s="42"/>
       <c r="AS37" s="31"/>
       <c r="AT37" s="31"/>
       <c r="AU37" s="31"/>
@@ -3675,13 +3579,13 @@
     <row r="38" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D38" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -3692,36 +3596,36 @@
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
       <c r="AC38" s="31"/>
       <c r="AD38" s="31"/>
       <c r="AE38" s="31"/>
-      <c r="AF38" s="47"/>
+      <c r="AF38" s="42"/>
       <c r="AG38" s="31"/>
       <c r="AH38" s="31"/>
       <c r="AI38" s="31"/>
       <c r="AJ38" s="31"/>
       <c r="AK38" s="31"/>
-      <c r="AL38" s="47"/>
+      <c r="AL38" s="42"/>
       <c r="AM38" s="31"/>
       <c r="AN38" s="31"/>
       <c r="AO38" s="31"/>
       <c r="AP38" s="31"/>
       <c r="AQ38" s="31"/>
-      <c r="AR38" s="47"/>
+      <c r="AR38" s="42"/>
       <c r="AS38" s="31"/>
       <c r="AT38" s="31"/>
       <c r="AU38" s="31"/>
@@ -3730,13 +3634,13 @@
     <row r="39" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="15">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D39" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -3747,36 +3651,36 @@
       <c r="G39" s="16">
         <v>0</v>
       </c>
-      <c r="O39" s="43"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
       <c r="AC39" s="31"/>
       <c r="AD39" s="31"/>
       <c r="AE39" s="31"/>
-      <c r="AF39" s="47"/>
+      <c r="AF39" s="42"/>
       <c r="AG39" s="31"/>
       <c r="AH39" s="31"/>
       <c r="AI39" s="31"/>
       <c r="AJ39" s="31"/>
       <c r="AK39" s="31"/>
-      <c r="AL39" s="47"/>
+      <c r="AL39" s="42"/>
       <c r="AM39" s="31"/>
       <c r="AN39" s="31"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
-      <c r="AR39" s="47"/>
+      <c r="AR39" s="42"/>
       <c r="AS39" s="31"/>
       <c r="AT39" s="31"/>
       <c r="AU39" s="31"/>
@@ -3785,13 +3689,13 @@
     <row r="40" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D40" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
@@ -3802,36 +3706,36 @@
       <c r="G40" s="16">
         <v>0</v>
       </c>
-      <c r="O40" s="43"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
       <c r="AC40" s="31"/>
       <c r="AD40" s="31"/>
       <c r="AE40" s="31"/>
-      <c r="AF40" s="47"/>
+      <c r="AF40" s="42"/>
       <c r="AG40" s="31"/>
       <c r="AH40" s="31"/>
       <c r="AI40" s="31"/>
       <c r="AJ40" s="31"/>
       <c r="AK40" s="31"/>
-      <c r="AL40" s="47"/>
+      <c r="AL40" s="42"/>
       <c r="AM40" s="31"/>
       <c r="AN40" s="31"/>
       <c r="AO40" s="31"/>
       <c r="AP40" s="31"/>
       <c r="AQ40" s="31"/>
-      <c r="AR40" s="47"/>
+      <c r="AR40" s="42"/>
       <c r="AS40" s="31"/>
       <c r="AT40" s="31"/>
       <c r="AU40" s="31"/>
@@ -3840,13 +3744,13 @@
     <row r="41" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
@@ -3857,36 +3761,36 @@
       <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="O41" s="43"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="47"/>
+      <c r="AF41" s="42"/>
       <c r="AG41" s="31"/>
       <c r="AH41" s="31"/>
       <c r="AI41" s="31"/>
       <c r="AJ41" s="31"/>
       <c r="AK41" s="31"/>
-      <c r="AL41" s="47"/>
+      <c r="AL41" s="42"/>
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="31"/>
       <c r="AP41" s="31"/>
       <c r="AQ41" s="31"/>
-      <c r="AR41" s="47"/>
+      <c r="AR41" s="42"/>
       <c r="AS41" s="31"/>
       <c r="AT41" s="31"/>
       <c r="AU41" s="31"/>
@@ -3895,13 +3799,13 @@
     <row r="42" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="15">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
@@ -3912,36 +3816,36 @@
       <c r="G42" s="16">
         <v>0</v>
       </c>
-      <c r="O42" s="43"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="47"/>
+      <c r="AF42" s="42"/>
       <c r="AG42" s="31"/>
       <c r="AH42" s="31"/>
       <c r="AI42" s="31"/>
       <c r="AJ42" s="31"/>
       <c r="AK42" s="31"/>
-      <c r="AL42" s="47"/>
+      <c r="AL42" s="42"/>
       <c r="AM42" s="31"/>
       <c r="AN42" s="31"/>
       <c r="AO42" s="31"/>
       <c r="AP42" s="31"/>
       <c r="AQ42" s="31"/>
-      <c r="AR42" s="47"/>
+      <c r="AR42" s="42"/>
       <c r="AS42" s="31"/>
       <c r="AT42" s="31"/>
       <c r="AU42" s="31"/>
@@ -3950,10 +3854,10 @@
     <row r="43" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
@@ -3967,36 +3871,36 @@
       <c r="G43" s="16">
         <v>0</v>
       </c>
-      <c r="O43" s="43"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="47"/>
+      <c r="AF43" s="42"/>
       <c r="AG43" s="31"/>
       <c r="AH43" s="31"/>
       <c r="AI43" s="31"/>
       <c r="AJ43" s="31"/>
       <c r="AK43" s="31"/>
-      <c r="AL43" s="47"/>
+      <c r="AL43" s="42"/>
       <c r="AM43" s="31"/>
       <c r="AN43" s="31"/>
       <c r="AO43" s="31"/>
       <c r="AP43" s="31"/>
       <c r="AQ43" s="31"/>
-      <c r="AR43" s="47"/>
+      <c r="AR43" s="42"/>
       <c r="AS43" s="31"/>
       <c r="AT43" s="31"/>
       <c r="AU43" s="31"/>
@@ -4005,13 +3909,13 @@
     <row r="44" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" s="15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
@@ -4022,43 +3926,370 @@
       <c r="G44" s="16">
         <v>0</v>
       </c>
-      <c r="O44" s="43"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="47"/>
+      <c r="AF44" s="42"/>
       <c r="AG44" s="31"/>
       <c r="AH44" s="31"/>
       <c r="AI44" s="31"/>
       <c r="AJ44" s="31"/>
       <c r="AK44" s="31"/>
-      <c r="AL44" s="47"/>
+      <c r="AL44" s="42"/>
       <c r="AM44" s="31"/>
       <c r="AN44" s="31"/>
       <c r="AO44" s="31"/>
       <c r="AP44" s="31"/>
       <c r="AQ44" s="31"/>
-      <c r="AR44" s="47"/>
+      <c r="AR44" s="42"/>
       <c r="AS44" s="31"/>
       <c r="AT44" s="31"/>
       <c r="AU44" s="31"/>
       <c r="AV44" s="31"/>
     </row>
+    <row r="45" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="15">
+        <v>28</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="O45" s="38"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+      <c r="AO45" s="31"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
+      <c r="AV45" s="31"/>
+    </row>
+    <row r="46" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="15">
+        <v>30</v>
+      </c>
+      <c r="D46" s="15">
+        <v>10</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="O46" s="38"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46" s="31"/>
+      <c r="AP46" s="31"/>
+      <c r="AQ46" s="31"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31"/>
+    </row>
+    <row r="47" spans="1:48" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+    </row>
+    <row r="48" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="15">
+        <v>5</v>
+      </c>
+      <c r="D48" s="15">
+        <v>11</v>
+      </c>
+      <c r="E48" s="15">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="O48" s="38"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48" s="31"/>
+      <c r="AP48" s="31"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="31"/>
+    </row>
+    <row r="49" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="15">
+        <v>15</v>
+      </c>
+      <c r="D49" s="15">
+        <v>10</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="38"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="31"/>
+      <c r="AO49" s="31"/>
+      <c r="AP49" s="31"/>
+      <c r="AQ49" s="31"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="31"/>
+      <c r="AU49" s="31"/>
+      <c r="AV49" s="31"/>
+    </row>
+    <row r="50" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="15">
+        <v>24</v>
+      </c>
+      <c r="D50" s="15">
+        <v>10</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="O50" s="38"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="42"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="31"/>
+      <c r="AQ50" s="31"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="31"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="AF9:AK9"/>
     <mergeCell ref="AL9:AQ9"/>
     <mergeCell ref="AR9:AV9"/>
@@ -4067,41 +4298,91 @@
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="O9:V9"/>
     <mergeCell ref="W9:AE9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A28"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:BP38">
-    <cfRule type="expression" dxfId="49" priority="9">
+  <conditionalFormatting sqref="I11:BP40">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="13">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="14">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="15">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="20">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BP10">
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BP44">
+  <conditionalFormatting sqref="I41:BP46">
+    <cfRule type="expression" dxfId="31" priority="17">
+      <formula>ProzentAbgeschlossen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="18">
+      <formula>ProzentAbgeschlossenUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="19">
+      <formula>Ist</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>IstUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>Planen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>I$10=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BP49">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>ProzentAbgeschlossen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>ProzentAbgeschlossenUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Ist</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>IstUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Planen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>I$10=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BP50">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>

--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -690,6 +690,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,24 +718,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -731,120 +731,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -1340,7 +1227,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="Ausgewählter_Zeitraum" max="60" min="1" page="10" val="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="Ausgewählter_Zeitraum" max="60" min="1" page="10" val="19"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1683,8 +1570,8 @@
   </sheetPr>
   <dimension ref="A1:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1702,22 +1589,22 @@
   <sheetData>
     <row r="1" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1616,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="19">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="R4" s="8"/>
       <c r="T4" s="9"/>
@@ -1761,12 +1648,12 @@
       </c>
     </row>
     <row r="5" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1835,58 +1722,58 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="44" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="44" t="s">
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="44" t="s">
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="44" t="s">
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="46"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="52"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
@@ -2099,7 +1986,7 @@
       <c r="BQ10" s="1"/>
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2156,7 +2043,7 @@
       <c r="AV11" s="31"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="35"/>
@@ -2211,7 +2098,7 @@
       <c r="AV12" s="31"/>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O13" s="38"/>
       <c r="P13" s="35"/>
@@ -2266,7 +2153,7 @@
       <c r="AV13" s="31"/>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O14" s="38"/>
       <c r="P14" s="35"/>
@@ -2321,7 +2208,7 @@
       <c r="AV14" s="31"/>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="38"/>
       <c r="P15" s="35"/>
@@ -2376,7 +2263,7 @@
       <c r="AV15" s="31"/>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2318,7 @@
       <c r="AV16" s="31"/>
     </row>
     <row r="17" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
@@ -2536,7 +2423,7 @@
       <c r="AV18" s="41"/>
     </row>
     <row r="19" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2593,7 +2480,7 @@
       <c r="AV19" s="31"/>
     </row>
     <row r="20" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
@@ -2610,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O20" s="38"/>
       <c r="P20" s="35"/>
@@ -2648,7 +2535,7 @@
       <c r="AV20" s="31"/>
     </row>
     <row r="21" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
@@ -2665,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O21" s="38"/>
       <c r="P21" s="35"/>
@@ -2703,7 +2590,7 @@
       <c r="AV21" s="31"/>
     </row>
     <row r="22" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
       </c>
@@ -2808,7 +2695,7 @@
       <c r="AV23" s="41"/>
     </row>
     <row r="24" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2865,7 +2752,7 @@
       <c r="AV24" s="31"/>
     </row>
     <row r="25" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="20" t="s">
         <v>28</v>
       </c>
@@ -2920,7 +2807,7 @@
       <c r="AV25" s="31"/>
     </row>
     <row r="26" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
@@ -2975,7 +2862,7 @@
       <c r="AV26" s="31"/>
     </row>
     <row r="27" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +2917,7 @@
       <c r="AV27" s="31"/>
     </row>
     <row r="28" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="20" t="s">
         <v>30</v>
       </c>
@@ -3135,23 +3022,23 @@
       <c r="AV29" s="41"/>
     </row>
     <row r="30" spans="1:48" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="46">
         <v>7</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="46">
         <v>15</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="46">
         <v>7</v>
       </c>
-      <c r="F30" s="51">
-        <v>0</v>
-      </c>
-      <c r="G30" s="52">
+      <c r="F30" s="46">
+        <v>0</v>
+      </c>
+      <c r="G30" s="47">
         <v>0.2</v>
       </c>
       <c r="H30" s="33"/>
@@ -4073,7 +3960,7 @@
     </row>
     <row r="47" spans="1:48" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="B47" s="53"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -4288,71 +4175,71 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="W9:AE9"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="AF9:AK9"/>
     <mergeCell ref="AL9:AQ9"/>
     <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:V9"/>
-    <mergeCell ref="W9:AE9"/>
   </mergeCells>
   <conditionalFormatting sqref="I11:BP40">
-    <cfRule type="expression" dxfId="40" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BP10">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BP46">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -19,7 +19,7 @@
     <definedName name="ZeitraumInIst">Projekt!A$10=MEDIAN(Projekt!A$10,Projekt!$E1,Projekt!$E1+Projekt!$F1-1)</definedName>
     <definedName name="ZeitraumInPlanenung">Projekt!A$10=MEDIAN(Projekt!A$10,Projekt!$C1,Projekt!$C1+Projekt!$D1-1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -133,9 +133,6 @@
     <t>MY SQL DB anlegen</t>
   </si>
   <si>
-    <t>2x Windows Server (VMs)</t>
-  </si>
-  <si>
     <t>DC aufsetzen</t>
   </si>
   <si>
@@ -253,7 +250,10 @@
     <t>Pflichtenheft</t>
   </si>
   <si>
-    <t>Präsentation</t>
+    <t>Präsentation erstellen</t>
+  </si>
+  <si>
+    <t>Präsentieren</t>
   </si>
 </sst>
 </file>
@@ -296,17 +296,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -559,7 +562,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,9 +639,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,6 +705,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -716,9 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1570,8 +1570,8 @@
   </sheetPr>
   <dimension ref="A1:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1589,22 +1589,22 @@
   <sheetData>
     <row r="1" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1648,12 +1648,12 @@
       </c>
     </row>
     <row r="5" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1723,7 +1723,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
@@ -1731,7 +1731,7 @@
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
@@ -1741,7 +1741,7 @@
       <c r="U9" s="51"/>
       <c r="V9" s="51"/>
       <c r="W9" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
@@ -1752,7 +1752,7 @@
       <c r="AD9" s="51"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
@@ -1760,7 +1760,7 @@
       <c r="AJ9" s="51"/>
       <c r="AK9" s="51"/>
       <c r="AL9" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM9" s="51"/>
       <c r="AN9" s="51"/>
@@ -1768,32 +1768,32 @@
       <c r="AP9" s="51"/>
       <c r="AQ9" s="51"/>
       <c r="AR9" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS9" s="51"/>
       <c r="AT9" s="51"/>
       <c r="AU9" s="51"/>
       <c r="AV9" s="52"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31"/>
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
     </row>
     <row r="10" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1821,106 +1821,106 @@
       <c r="N10" s="3">
         <v>6</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="35">
         <v>7</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>8</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="36">
         <v>9</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="36">
         <v>10</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="36">
         <v>11</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="36">
         <v>12</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="36">
         <v>13</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="36">
         <v>14</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="35">
         <v>15</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="36">
         <v>16</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Y10" s="36">
         <v>17</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="36">
         <v>18</v>
       </c>
-      <c r="AA10" s="37">
+      <c r="AA10" s="36">
         <v>19</v>
       </c>
-      <c r="AB10" s="37">
+      <c r="AB10" s="36">
         <v>20</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AC10" s="36">
         <v>21</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AD10" s="36">
         <v>22</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AE10" s="36">
         <v>23</v>
       </c>
-      <c r="AF10" s="36">
+      <c r="AF10" s="35">
         <v>24</v>
       </c>
-      <c r="AG10" s="37">
+      <c r="AG10" s="36">
         <v>25</v>
       </c>
-      <c r="AH10" s="37">
+      <c r="AH10" s="36">
         <v>26</v>
       </c>
-      <c r="AI10" s="37">
+      <c r="AI10" s="36">
         <v>27</v>
       </c>
-      <c r="AJ10" s="37">
+      <c r="AJ10" s="36">
         <v>28</v>
       </c>
-      <c r="AK10" s="37">
+      <c r="AK10" s="36">
         <v>29</v>
       </c>
-      <c r="AL10" s="36">
+      <c r="AL10" s="35">
         <v>30</v>
       </c>
-      <c r="AM10" s="37">
+      <c r="AM10" s="36">
         <v>31</v>
       </c>
-      <c r="AN10" s="37">
+      <c r="AN10" s="36">
         <v>32</v>
       </c>
-      <c r="AO10" s="37">
+      <c r="AO10" s="36">
         <v>33</v>
       </c>
-      <c r="AP10" s="37">
+      <c r="AP10" s="36">
         <v>34</v>
       </c>
-      <c r="AQ10" s="37">
+      <c r="AQ10" s="36">
         <v>35</v>
       </c>
-      <c r="AR10" s="36">
+      <c r="AR10" s="35">
         <v>36</v>
       </c>
-      <c r="AS10" s="37">
+      <c r="AS10" s="36">
         <v>37</v>
       </c>
-      <c r="AT10" s="37">
+      <c r="AT10" s="36">
         <v>38</v>
       </c>
-      <c r="AU10" s="37">
+      <c r="AU10" s="36">
         <v>39</v>
       </c>
-      <c r="AV10" s="37">
+      <c r="AV10" s="36">
         <v>40</v>
       </c>
       <c r="AW10" s="3">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>15</v>
@@ -2002,100 +2002,100 @@
         <v>7</v>
       </c>
       <c r="F11" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-    </row>
-    <row r="12" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+    </row>
+    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15">
-        <v>8</v>
-      </c>
-      <c r="D12" s="26">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
     </row>
     <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
@@ -2103,54 +2103,54 @@
         <v>17</v>
       </c>
       <c r="C13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
       </c>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
     </row>
     <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
@@ -2158,54 +2158,54 @@
         <v>18</v>
       </c>
       <c r="C14" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="37"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
     </row>
     <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
@@ -2213,54 +2213,54 @@
         <v>19</v>
       </c>
       <c r="C15" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>24</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="30"/>
     </row>
     <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
@@ -2268,216 +2268,216 @@
         <v>20</v>
       </c>
       <c r="C16" s="15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-    </row>
-    <row r="17" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="20" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+    </row>
+    <row r="17" spans="1:48" s="33" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+    </row>
+    <row r="18" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C18" s="15">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-    </row>
-    <row r="18" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
+      <c r="E18" s="15">
+        <v>7</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
     </row>
     <row r="19" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="49"/>
       <c r="B19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
+      <c r="AU19" s="30"/>
+      <c r="AV19" s="30"/>
     </row>
     <row r="20" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
@@ -2485,876 +2485,876 @@
         <v>23</v>
       </c>
       <c r="C20" s="15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
     </row>
     <row r="21" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="15">
-        <v>14</v>
+      <c r="C21" s="17">
+        <v>19</v>
       </c>
       <c r="D21" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-    </row>
-    <row r="22" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="20" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+    </row>
+    <row r="22" spans="1:48" s="33" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+    </row>
+    <row r="23" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="17">
-        <v>19</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="C23" s="15">
+        <v>7</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>7</v>
+      </c>
+      <c r="F23" s="15">
         <v>4</v>
       </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-    </row>
-    <row r="23" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
     </row>
     <row r="24" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
-        <v>31</v>
-      </c>
+      <c r="A24" s="49"/>
       <c r="B24" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24" s="15">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>15</v>
+      </c>
+      <c r="F24" s="15">
         <v>3</v>
       </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
       <c r="G24" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
     </row>
     <row r="25" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="15">
         <v>2</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F25" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-    </row>
-    <row r="26" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
+      <c r="AU25" s="30"/>
+      <c r="AV25" s="30"/>
+    </row>
+    <row r="26" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="15">
+        <v>14</v>
+      </c>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15">
         <v>27</v>
       </c>
-      <c r="C26" s="15">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-    </row>
-    <row r="27" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+    </row>
+    <row r="27" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="15">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="37"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="30"/>
+      <c r="AV27" s="30"/>
+    </row>
+    <row r="28" spans="1:48" s="33" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+    </row>
+    <row r="29" spans="1:48" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="45">
+        <v>7</v>
+      </c>
+      <c r="D29" s="45">
+        <v>15</v>
+      </c>
+      <c r="E29" s="45">
+        <v>30</v>
+      </c>
+      <c r="F29" s="45">
+        <v>5</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
+    </row>
+    <row r="30" spans="1:48" s="33" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="40"/>
+      <c r="AV30" s="40"/>
+    </row>
+    <row r="31" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-    </row>
-    <row r="28" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="15">
-        <v>18</v>
-      </c>
-      <c r="D28" s="15">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-    </row>
-    <row r="29" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-    </row>
-    <row r="30" spans="1:48" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="46">
-        <v>7</v>
-      </c>
-      <c r="D30" s="46">
-        <v>15</v>
-      </c>
-      <c r="E30" s="46">
-        <v>7</v>
-      </c>
-      <c r="F30" s="46">
-        <v>0</v>
-      </c>
-      <c r="G30" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-    </row>
-    <row r="31" spans="1:48" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="43"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
     </row>
     <row r="32" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="15">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="15">
-        <v>2</v>
-      </c>
       <c r="E32" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G32" s="16">
         <v>0</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="30"/>
+      <c r="AV32" s="30"/>
     </row>
     <row r="33" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="16">
         <v>0</v>
       </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="31"/>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="30"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="30"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="30"/>
+      <c r="AV33" s="30"/>
     </row>
     <row r="34" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
       </c>
-      <c r="O34" s="38"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="30"/>
     </row>
     <row r="35" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="30"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="30"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+      <c r="AU35" s="30"/>
+      <c r="AV35" s="30"/>
     </row>
     <row r="36" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
@@ -3362,169 +3362,169 @@
         <v>7</v>
       </c>
       <c r="D36" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F36" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="16">
         <v>0</v>
       </c>
-      <c r="O36" s="38"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
-      <c r="AV36" s="31"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
     </row>
     <row r="37" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="F37" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="42"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="30"/>
     </row>
     <row r="38" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="F38" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
     </row>
     <row r="39" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D39" s="15">
         <v>4</v>
@@ -3533,331 +3533,331 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="16">
         <v>0</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="30"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="30"/>
     </row>
     <row r="40" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D40" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="F40" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="16">
         <v>0</v>
       </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="30"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="30"/>
+      <c r="AT40" s="30"/>
+      <c r="AU40" s="30"/>
+      <c r="AV40" s="30"/>
     </row>
     <row r="41" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="F41" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="O41" s="38"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
     </row>
     <row r="42" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="F42" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
     </row>
     <row r="43" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D43" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
       </c>
-      <c r="O43" s="38"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="41"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="41"/>
+      <c r="AS43" s="30"/>
+      <c r="AT43" s="30"/>
+      <c r="AU43" s="30"/>
+      <c r="AV43" s="30"/>
     </row>
     <row r="44" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D44" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="F44" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="16">
         <v>0</v>
       </c>
-      <c r="O44" s="38"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="41"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="41"/>
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="30"/>
+      <c r="AU44" s="30"/>
+      <c r="AV44" s="30"/>
     </row>
     <row r="45" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
@@ -3868,266 +3868,266 @@
       <c r="G45" s="16">
         <v>0</v>
       </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="31"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-    </row>
-    <row r="46" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="14" t="s">
+      <c r="O45" s="37"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="41"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="41"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+    </row>
+    <row r="46" spans="1:48" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="41"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="41"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="30"/>
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="30"/>
+    </row>
+    <row r="47" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="15">
+        <v>5</v>
+      </c>
+      <c r="D47" s="15">
+        <v>11</v>
+      </c>
+      <c r="E47" s="15">
+        <v>7</v>
+      </c>
+      <c r="F47" s="15">
+        <v>16</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+      <c r="O47" s="37"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="41"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="30"/>
+      <c r="AU47" s="30"/>
+      <c r="AV47" s="30"/>
+    </row>
+    <row r="48" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="15">
-        <v>30</v>
-      </c>
-      <c r="D46" s="15">
+      <c r="C48" s="15">
+        <v>15</v>
+      </c>
+      <c r="D48" s="15">
         <v>10</v>
       </c>
-      <c r="E46" s="15">
-        <v>0</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="O46" s="38"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="31"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-    </row>
-    <row r="47" spans="1:48" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-    </row>
-    <row r="48" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="14" t="s">
+      <c r="E48" s="15">
+        <v>24</v>
+      </c>
+      <c r="F48" s="15">
+        <v>10</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="O48" s="37"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="41"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="41"/>
+      <c r="AS48" s="30"/>
+      <c r="AT48" s="30"/>
+      <c r="AU48" s="30"/>
+      <c r="AV48" s="30"/>
+    </row>
+    <row r="49" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="15">
-        <v>5</v>
-      </c>
-      <c r="D48" s="15">
-        <v>11</v>
-      </c>
-      <c r="E48" s="15">
-        <v>5</v>
-      </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="31"/>
-      <c r="AO48" s="31"/>
-      <c r="AP48" s="31"/>
-      <c r="AQ48" s="31"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="31"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="31"/>
-    </row>
-    <row r="49" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="C49" s="15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D49" s="15">
         <v>10</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" s="16">
         <v>0</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="31"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="31"/>
-      <c r="AO49" s="31"/>
-      <c r="AP49" s="31"/>
-      <c r="AQ49" s="31"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="31"/>
-      <c r="AT49" s="31"/>
-      <c r="AU49" s="31"/>
-      <c r="AV49" s="31"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30"/>
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
     </row>
     <row r="50" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="15">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D50" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
@@ -4138,160 +4138,160 @@
       <c r="G50" s="16">
         <v>0</v>
       </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="31"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="31"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="31"/>
-      <c r="AT50" s="31"/>
-      <c r="AU50" s="31"/>
-      <c r="AV50" s="31"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="41"/>
+      <c r="AM50" s="30"/>
+      <c r="AN50" s="30"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="30"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="41"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="30"/>
+      <c r="AU50" s="30"/>
+      <c r="AV50" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="B3:G5"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="O9:V9"/>
     <mergeCell ref="W9:AE9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:BP40">
-    <cfRule type="expression" dxfId="32" priority="25">
+  <conditionalFormatting sqref="I11:BP39">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="25" priority="44">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BP10">
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BP46">
-    <cfRule type="expression" dxfId="23" priority="17">
+  <conditionalFormatting sqref="I40:BP45">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="17" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BP49">
-    <cfRule type="expression" dxfId="15" priority="9">
+  <conditionalFormatting sqref="I46:BP48">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BP50">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="I49:BP50">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>I$10=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
